--- a/Data/26/data.xlsx
+++ b/Data/26/data.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wahmed/My Drive (waqarahmed4544@gmail.com)/IIT/ForceField/Smart-Fermenter/data/26/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wahmed/My Drive (waqarahmed4544@gmail.com)/IIT/ForceField/Smart-Fermenter/new data/26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BD1B6A-DE65-D447-B6E0-483D2242E9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB2A821-D657-B44E-B7C4-20745FC4A025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Minibio 7 prova 26" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Minibio 7 prova 26'!$N$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Minibio 7 prova 26'!$N$2:$N$1451</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -5224,13 +5220,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1426" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R1439" sqref="R1439"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -64763,4 +64759,271 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fd35b2cc-da16-4109-82e0-6da883fd779d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f2136858-1eb2-45b2-bfee-5418ca5bf950" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C046284570C074C9FD33E4DFBE124D3" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3507edf0fe8a4d6809da135bdc99deea">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fd35b2cc-da16-4109-82e0-6da883fd779d" xmlns:ns3="f2136858-1eb2-45b2-bfee-5418ca5bf950" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="269869ec490554c6ceba2e9d9cd61db7" ns2:_="" ns3:_="">
+    <xsd:import namespace="fd35b2cc-da16-4109-82e0-6da883fd779d"/>
+    <xsd:import namespace="f2136858-1eb2-45b2-bfee-5418ca5bf950"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fd35b2cc-da16-4109-82e0-6da883fd779d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="14" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="9f398136-f8d2-4c3a-998c-171b47602f67" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f2136858-1eb2-45b2-bfee-5418ca5bf950" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{bcf81975-6d94-4fcd-8bf0-12481f80c75e}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="f2136858-1eb2-45b2-bfee-5418ca5bf950">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B55B65CF-E22D-4649-9053-5EFF9C60CBBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fd35b2cc-da16-4109-82e0-6da883fd779d"/>
+    <ds:schemaRef ds:uri="f2136858-1eb2-45b2-bfee-5418ca5bf950"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36E52280-69F1-4065-B301-650D95EFAE3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9D476DE-C027-45D6-9C2D-62B1CD67DA86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fd35b2cc-da16-4109-82e0-6da883fd779d"/>
+    <ds:schemaRef ds:uri="f2136858-1eb2-45b2-bfee-5418ca5bf950"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>